--- a/Lab3 - Timeseries powerflow/results/res_line/i_ka.xlsx
+++ b/Lab3 - Timeseries powerflow/results/res_line/i_ka.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -391,557 +391,782 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.03100277324086898</v>
+        <v>0.5358808058515003</v>
       </c>
       <c r="C2">
-        <v>0.02704113657075197</v>
+        <v>0.5020810498134455</v>
       </c>
       <c r="D2">
-        <v>0.02208272514351803</v>
+        <v>0.08597019037400189</v>
       </c>
       <c r="E2">
-        <v>0.04192908505423242</v>
+        <v>0.05790664274901546</v>
       </c>
       <c r="F2">
-        <v>0.00819575677840498</v>
+        <v>0.1921497020013277</v>
       </c>
       <c r="G2">
-        <v>0.007179463248871728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.007038424210659001</v>
+      </c>
+      <c r="H2">
+        <v>0.004045864171732641</v>
+      </c>
+      <c r="I2">
+        <v>0.0566835539591387</v>
+      </c>
+      <c r="J2">
+        <v>0.01034949732185731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03088251715405622</v>
+        <v>0.5019628894578485</v>
       </c>
       <c r="C3">
-        <v>0.02693040566235356</v>
+        <v>0.4724844168366681</v>
       </c>
       <c r="D3">
-        <v>0.02211666131617727</v>
+        <v>0.07710224888280645</v>
       </c>
       <c r="E3">
-        <v>0.04196472210838757</v>
+        <v>0.04999866069007767</v>
       </c>
       <c r="F3">
-        <v>0.008150839982825181</v>
+        <v>0.1815561356857811</v>
       </c>
       <c r="G3">
-        <v>0.007179518547387315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.007051586443220063</v>
+      </c>
+      <c r="H3">
+        <v>0.004053430155755972</v>
+      </c>
+      <c r="I3">
+        <v>0.05675591081323912</v>
+      </c>
+      <c r="J3">
+        <v>0.01034949732185791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03128005223957592</v>
+        <v>0.6164736710193688</v>
       </c>
       <c r="C4">
-        <v>0.02734558793277605</v>
+        <v>0.5869197827276013</v>
       </c>
       <c r="D4">
-        <v>0.02199921415836625</v>
+        <v>0.107318921264026</v>
       </c>
       <c r="E4">
-        <v>0.04184706443637386</v>
+        <v>0.08199743452438145</v>
       </c>
       <c r="F4">
-        <v>0.00837056505226126</v>
+        <v>0.2300985297670788</v>
       </c>
       <c r="G4">
-        <v>0.007179314939567683</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.006996219934415862</v>
+      </c>
+      <c r="H4">
+        <v>0.004021604086797844</v>
+      </c>
+      <c r="I4">
+        <v>0.05647407258957495</v>
+      </c>
+      <c r="J4">
+        <v>0.01034949732185767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03124906077922923</v>
+        <v>0.6078795042000202</v>
       </c>
       <c r="C5">
-        <v>0.02731308107128573</v>
+        <v>0.5783316214860028</v>
       </c>
       <c r="D5">
-        <v>0.02200793509342692</v>
+        <v>0.1048452018021392</v>
       </c>
       <c r="E5">
-        <v>0.04185580101558801</v>
+        <v>0.07941689018132196</v>
       </c>
       <c r="F5">
-        <v>0.008352899779012064</v>
+        <v>0.2264307951228562</v>
       </c>
       <c r="G5">
-        <v>0.007179330058304785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.007000684496501481</v>
+      </c>
+      <c r="H5">
+        <v>0.004024170429951716</v>
+      </c>
+      <c r="I5">
+        <v>0.05649680007421447</v>
+      </c>
+      <c r="J5">
+        <v>0.01034949732185745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03196225304172372</v>
+        <v>0.7596946481716107</v>
       </c>
       <c r="C6">
-        <v>0.02775052394386713</v>
+        <v>0.6579921227250886</v>
       </c>
       <c r="D6">
-        <v>0.02189500613512351</v>
+        <v>0.1613875263751504</v>
       </c>
       <c r="E6">
-        <v>0.04169297381565071</v>
+        <v>0.1073058824987509</v>
       </c>
       <c r="F6">
-        <v>0.008354357973728688</v>
+        <v>0.2280825452953868</v>
       </c>
       <c r="G6">
-        <v>0.007179154114731127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.006962427886319974</v>
+      </c>
+      <c r="H6">
+        <v>0.00400217956326891</v>
+      </c>
+      <c r="I6">
+        <v>0.0561891693448355</v>
+      </c>
+      <c r="J6">
+        <v>0.01034949732185776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03137438688934555</v>
+        <v>0.5892465031428454</v>
       </c>
       <c r="C7">
-        <v>0.02700677859358055</v>
+        <v>0.4362239724158398</v>
       </c>
       <c r="D7">
-        <v>0.02212739171204188</v>
+        <v>0.1681941593630098</v>
       </c>
       <c r="E7">
-        <v>0.04185889502344121</v>
+        <v>0.05343631007638842</v>
       </c>
       <c r="F7">
-        <v>0.007900320385028338</v>
+        <v>0.1122501853051663</v>
       </c>
       <c r="G7">
-        <v>0.007179520477110725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.007064448626525389</v>
+      </c>
+      <c r="H7">
+        <v>0.004060823663882313</v>
+      </c>
+      <c r="I7">
+        <v>0.05659650470983065</v>
+      </c>
+      <c r="J7">
+        <v>0.01034949732185748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03144336206987776</v>
+        <v>0.6572297677952398</v>
       </c>
       <c r="C8">
-        <v>0.02701349646197133</v>
+        <v>0.4883031520001636</v>
       </c>
       <c r="D8">
-        <v>0.02211097057543668</v>
+        <v>0.1875453058631583</v>
       </c>
       <c r="E8">
-        <v>0.04187473192313465</v>
+        <v>0.0683353824944094</v>
       </c>
       <c r="F8">
-        <v>0.007944694560795613</v>
+        <v>0.1271758329326591</v>
       </c>
       <c r="G8">
-        <v>0.007179416463816722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.007041480277659606</v>
+      </c>
+      <c r="H8">
+        <v>0.004047620876301969</v>
+      </c>
+      <c r="I8">
+        <v>0.05644036336935686</v>
+      </c>
+      <c r="J8">
+        <v>0.01034949732185781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03106918185273359</v>
+        <v>0.6207182040523006</v>
       </c>
       <c r="C9">
-        <v>0.02673052908738896</v>
+        <v>0.4673425718969491</v>
       </c>
       <c r="D9">
-        <v>0.02217966478774048</v>
+        <v>0.1703816290466018</v>
       </c>
       <c r="E9">
-        <v>0.04200836655293174</v>
+        <v>0.06065490064157048</v>
       </c>
       <c r="F9">
-        <v>0.007939969509239982</v>
+        <v>0.1254981157493113</v>
       </c>
       <c r="G9">
-        <v>0.007179459210549189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.007051704802395436</v>
+      </c>
+      <c r="H9">
+        <v>0.004053498191603517</v>
+      </c>
+      <c r="I9">
+        <v>0.05653113980917718</v>
+      </c>
+      <c r="J9">
+        <v>0.01034949732185823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03148614804461328</v>
+        <v>0.7717368998532005</v>
       </c>
       <c r="C10">
-        <v>0.02718066455061666</v>
+        <v>0.6412930777149073</v>
       </c>
       <c r="D10">
-        <v>0.02204590626347816</v>
+        <v>0.176754999245233</v>
       </c>
       <c r="E10">
-        <v>0.04190858963530237</v>
+        <v>0.1048113123002665</v>
       </c>
       <c r="F10">
-        <v>0.008261998911928607</v>
+        <v>0.208685150246393</v>
       </c>
       <c r="G10">
-        <v>0.007179162798331129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.006971089460396557</v>
+      </c>
+      <c r="H10">
+        <v>0.004007158455019276</v>
+      </c>
+      <c r="I10">
+        <v>0.05617446786673804</v>
+      </c>
+      <c r="J10">
+        <v>0.01034949732185742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0314956411558122</v>
+        <v>0.8198464547290364</v>
       </c>
       <c r="C11">
-        <v>0.02717602886084266</v>
+        <v>0.6858383396807656</v>
       </c>
       <c r="D11">
-        <v>0.02205794530077434</v>
+        <v>0.1887726184775851</v>
       </c>
       <c r="E11">
-        <v>0.04194329622877736</v>
+        <v>0.1193021127585253</v>
       </c>
       <c r="F11">
-        <v>0.008342192865605265</v>
+        <v>0.2261953198394274</v>
       </c>
       <c r="G11">
-        <v>0.007179082370506725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006946508614047961</v>
+      </c>
+      <c r="H11">
+        <v>0.003993028763119696</v>
+      </c>
+      <c r="I11">
+        <v>0.05604168621963885</v>
+      </c>
+      <c r="J11">
+        <v>0.01034949732185771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03090367998250571</v>
+        <v>0.6959398905413373</v>
       </c>
       <c r="C12">
-        <v>0.02658082455991894</v>
+        <v>0.5432693869769</v>
       </c>
       <c r="D12">
-        <v>0.02224533742556415</v>
+        <v>0.1775936670180492</v>
       </c>
       <c r="E12">
-        <v>0.04215042606980227</v>
+        <v>0.07962615646740187</v>
       </c>
       <c r="F12">
-        <v>0.008051332647487456</v>
+        <v>0.1579648301736426</v>
       </c>
       <c r="G12">
-        <v>0.007179318753210231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.007018417040325533</v>
+      </c>
+      <c r="H12">
+        <v>0.004034363544432816</v>
+      </c>
+      <c r="I12">
+        <v>0.05636401625525306</v>
+      </c>
+      <c r="J12">
+        <v>0.01034949732185769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.03009962132839935</v>
+        <v>0.5751768925823559</v>
       </c>
       <c r="C13">
-        <v>0.02589494918303692</v>
+        <v>0.4123549047972295</v>
       </c>
       <c r="D13">
-        <v>0.02258890401733555</v>
+        <v>0.1725571087005441</v>
       </c>
       <c r="E13">
-        <v>0.04255510198478635</v>
+        <v>0.04985326200038729</v>
       </c>
       <c r="F13">
-        <v>0.007865403731492707</v>
+        <v>0.09952112515341328</v>
       </c>
       <c r="G13">
-        <v>0.007179539136970695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.007071691775738488</v>
+      </c>
+      <c r="H13">
+        <v>0.004064987209161739</v>
+      </c>
+      <c r="I13">
+        <v>0.05660904483684667</v>
+      </c>
+      <c r="J13">
+        <v>0.01034949732185826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03015274806810309</v>
+        <v>0.6790537795413052</v>
       </c>
       <c r="C14">
-        <v>0.02584744600265847</v>
+        <v>0.4671504923705401</v>
       </c>
       <c r="D14">
-        <v>0.02263053395695064</v>
+        <v>0.2235604814242648</v>
       </c>
       <c r="E14">
-        <v>0.04266506186415532</v>
+        <v>0.07198544347380717</v>
       </c>
       <c r="F14">
-        <v>0.007868623741902772</v>
+        <v>0.1012059598253913</v>
       </c>
       <c r="G14">
-        <v>0.00717941095967274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.007043046826147274</v>
+      </c>
+      <c r="H14">
+        <v>0.004048521367974853</v>
+      </c>
+      <c r="I14">
+        <v>0.05632818775380403</v>
+      </c>
+      <c r="J14">
+        <v>0.01034949732185737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.02951925859989055</v>
+        <v>0.5498494968225296</v>
       </c>
       <c r="C15">
-        <v>0.02547108842538845</v>
+        <v>0.3915295439932309</v>
       </c>
       <c r="D15">
-        <v>0.02306432690896015</v>
+        <v>0.1649736594001353</v>
       </c>
       <c r="E15">
-        <v>0.04305697749561629</v>
+        <v>0.04473145878010241</v>
       </c>
       <c r="F15">
-        <v>0.007850586951368897</v>
+        <v>0.09362151117991728</v>
       </c>
       <c r="G15">
-        <v>0.00717956551119558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.007079513833574132</v>
+      </c>
+      <c r="H15">
+        <v>0.004069483525754372</v>
+      </c>
+      <c r="I15">
+        <v>0.05665996100766261</v>
+      </c>
+      <c r="J15">
+        <v>0.01034949732185764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.02935414666556352</v>
+        <v>0.4252215440630329</v>
       </c>
       <c r="C16">
-        <v>0.02539566211384367</v>
+        <v>0.2985594261635034</v>
       </c>
       <c r="D16">
-        <v>0.02316115292725535</v>
+        <v>0.1288968812642545</v>
       </c>
       <c r="E16">
-        <v>0.04310247975426319</v>
+        <v>0.02163324699645448</v>
       </c>
       <c r="F16">
-        <v>0.00779620203861801</v>
+        <v>0.06874567782269478</v>
       </c>
       <c r="G16">
-        <v>0.007179752059901724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.007114453737954856</v>
+      </c>
+      <c r="H16">
+        <v>0.00408956786609175</v>
+      </c>
+      <c r="I16">
+        <v>0.0569102219464776</v>
+      </c>
+      <c r="J16">
+        <v>0.0103494973218582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02939823532399785</v>
+        <v>0.3853196852331257</v>
       </c>
       <c r="C17">
-        <v>0.02543606469615767</v>
+        <v>0.265377941788285</v>
       </c>
       <c r="D17">
-        <v>0.02306885355053935</v>
+        <v>0.1213907539147288</v>
       </c>
       <c r="E17">
-        <v>0.04300543543096496</v>
+        <v>0.01493179964169772</v>
       </c>
       <c r="F17">
-        <v>0.007776441552577788</v>
+        <v>0.05772038261971318</v>
       </c>
       <c r="G17">
-        <v>0.00717982031653377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.007125273620403961</v>
+      </c>
+      <c r="H17">
+        <v>0.004095787408057149</v>
+      </c>
+      <c r="I17">
+        <v>0.05697914841731744</v>
+      </c>
+      <c r="J17">
+        <v>0.01034949732185764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.03040035943976839</v>
+        <v>0.7304720492101381</v>
       </c>
       <c r="C18">
-        <v>0.02619755632193722</v>
+        <v>0.6037535188506254</v>
       </c>
       <c r="D18">
-        <v>0.02253813427271552</v>
+        <v>0.1646077754116315</v>
       </c>
       <c r="E18">
-        <v>0.04247949394028298</v>
+        <v>0.09317898527874373</v>
       </c>
       <c r="F18">
-        <v>0.008204540382129906</v>
+        <v>0.1955650167801629</v>
       </c>
       <c r="G18">
-        <v>0.007179216392504886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.006989977479029142</v>
+      </c>
+      <c r="H18">
+        <v>0.004018015765628359</v>
+      </c>
+      <c r="I18">
+        <v>0.05627872609965353</v>
+      </c>
+      <c r="J18">
+        <v>0.01034949732185787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.03296507155374318</v>
+        <v>1.300801656987944</v>
       </c>
       <c r="C19">
-        <v>0.02822023512799183</v>
+        <v>1.087916685870923</v>
       </c>
       <c r="D19">
-        <v>0.02181739525239113</v>
+        <v>0.3631845421005278</v>
       </c>
       <c r="E19">
-        <v>0.041775597513703</v>
+        <v>0.29177608839209</v>
       </c>
       <c r="F19">
-        <v>0.00904054148055489</v>
+        <v>0.3656827923073449</v>
       </c>
       <c r="G19">
-        <v>0.007178395897322895</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.006663286804118432</v>
+      </c>
+      <c r="H19">
+        <v>0.003830225706759378</v>
+      </c>
+      <c r="I19">
+        <v>0.05439489708343181</v>
+      </c>
+      <c r="J19">
+        <v>0.0103494973218575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.03621850827408045</v>
+        <v>1.716519728581469</v>
       </c>
       <c r="C20">
-        <v>0.03021043799432935</v>
+        <v>1.31275171371869</v>
       </c>
       <c r="D20">
-        <v>0.0215548860593177</v>
+        <v>0.5736613814510163</v>
       </c>
       <c r="E20">
-        <v>0.04107884563621109</v>
+        <v>0.4507885572937119</v>
       </c>
       <c r="F20">
-        <v>0.008986455587271572</v>
+        <v>0.3713968212530279</v>
       </c>
       <c r="G20">
-        <v>0.007178014168648023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.006440008348999281</v>
+      </c>
+      <c r="H20">
+        <v>0.003701879606150603</v>
+      </c>
+      <c r="I20">
+        <v>0.05250265084133948</v>
+      </c>
+      <c r="J20">
+        <v>0.01034949732185748</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.03565918626125064</v>
+        <v>1.574562268989893</v>
       </c>
       <c r="C21">
-        <v>0.03009351328187061</v>
+        <v>1.242106283214433</v>
       </c>
       <c r="D21">
-        <v>0.02152960879512782</v>
+        <v>0.4981233749499565</v>
       </c>
       <c r="E21">
-        <v>0.04110870318608629</v>
+        <v>0.3924157943160818</v>
       </c>
       <c r="F21">
-        <v>0.009038791524169939</v>
+        <v>0.3750553565708715</v>
       </c>
       <c r="G21">
-        <v>0.007178133702245122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.006519630441122116</v>
+      </c>
+      <c r="H21">
+        <v>0.003747648397594121</v>
+      </c>
+      <c r="I21">
+        <v>0.05323413076984591</v>
+      </c>
+      <c r="J21">
+        <v>0.0103494973218578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.03482646174539789</v>
+        <v>1.401305730095858</v>
       </c>
       <c r="C22">
-        <v>0.02994508396826584</v>
+        <v>1.180376563107673</v>
       </c>
       <c r="D22">
-        <v>0.02147705742870142</v>
+        <v>0.4083206189818997</v>
       </c>
       <c r="E22">
-        <v>0.04117743387622769</v>
+        <v>0.3403405759200849</v>
       </c>
       <c r="F22">
-        <v>0.009228923449755103</v>
+        <v>0.4027507893724636</v>
       </c>
       <c r="G22">
-        <v>0.007178267637869772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.006582009526118522</v>
+      </c>
+      <c r="H22">
+        <v>0.003783505472628282</v>
+      </c>
+      <c r="I22">
+        <v>0.0539556490672951</v>
+      </c>
+      <c r="J22">
+        <v>0.01034949732185803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.03422966383774046</v>
+        <v>1.247617801998664</v>
       </c>
       <c r="C23">
-        <v>0.0297348185643542</v>
+        <v>1.092627058346922</v>
       </c>
       <c r="D23">
-        <v>0.0214955328627141</v>
+        <v>0.3391533950202335</v>
       </c>
       <c r="E23">
-        <v>0.04123196575473546</v>
+        <v>0.2890725023192408</v>
       </c>
       <c r="F23">
-        <v>0.009216051584868174</v>
+        <v>0.3950521311805708</v>
       </c>
       <c r="G23">
-        <v>0.007178426423964089</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.006657362040557943</v>
+      </c>
+      <c r="H23">
+        <v>0.003826820002884144</v>
+      </c>
+      <c r="I23">
+        <v>0.05452055671393182</v>
+      </c>
+      <c r="J23">
+        <v>0.01034949732185788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.03360762134286755</v>
+        <v>1.148623198653363</v>
       </c>
       <c r="C24">
-        <v>0.02943952711868348</v>
+        <v>1.052297066509161</v>
       </c>
       <c r="D24">
-        <v>0.02152658125601549</v>
+        <v>0.3012284998686627</v>
       </c>
       <c r="E24">
-        <v>0.04133143167250627</v>
+        <v>0.2675538708739627</v>
       </c>
       <c r="F24">
-        <v>0.009294931881956632</v>
+        <v>0.4058045747472693</v>
       </c>
       <c r="G24">
-        <v>0.00717851612990838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.006684558908097194</v>
+      </c>
+      <c r="H24">
+        <v>0.003842453449900585</v>
+      </c>
+      <c r="I24">
+        <v>0.05478473084670418</v>
+      </c>
+      <c r="J24">
+        <v>0.01034949732185763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.03305311191306758</v>
+        <v>1.040539178463539</v>
       </c>
       <c r="C25">
-        <v>0.02903725732522259</v>
+        <v>0.9754992151631737</v>
       </c>
       <c r="D25">
-        <v>0.0216043756520782</v>
+        <v>0.258649629981242</v>
       </c>
       <c r="E25">
-        <v>0.04143386019144348</v>
+        <v>0.2306954509729591</v>
       </c>
       <c r="F25">
-        <v>0.009195463938056835</v>
+        <v>0.3856240279054777</v>
       </c>
       <c r="G25">
-        <v>0.007178649549482551</v>
+        <v>0.006743640468627726</v>
+      </c>
+      <c r="H25">
+        <v>0.00387641502450983</v>
+      </c>
+      <c r="I25">
+        <v>0.05513924166169724</v>
+      </c>
+      <c r="J25">
+        <v>0.01034949732185798</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3 - Timeseries powerflow/results/res_line/i_ka.xlsx
+++ b/Lab3 - Timeseries powerflow/results/res_line/i_ka.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,779 +394,629 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5358808058515003</v>
+        <v>0.5231568073357005</v>
       </c>
       <c r="C2">
-        <v>0.5020810498134455</v>
+        <v>0.559529178767847</v>
       </c>
       <c r="D2">
-        <v>0.08597019037400189</v>
+        <v>0.05076329306334143</v>
       </c>
       <c r="E2">
-        <v>0.05790664274901546</v>
+        <v>0.02715406454790106</v>
       </c>
       <c r="F2">
-        <v>0.1921497020013277</v>
+        <v>0.1904523011779316</v>
       </c>
       <c r="G2">
-        <v>0.007038424210659001</v>
+        <v>0.007098194512024602</v>
       </c>
       <c r="H2">
-        <v>0.004045864171732641</v>
-      </c>
-      <c r="I2">
-        <v>0.0566835539591387</v>
-      </c>
-      <c r="J2">
-        <v>0.01034949732185731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>1.050632697832093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5019628894578485</v>
+        <v>0.5553073590466672</v>
       </c>
       <c r="C3">
-        <v>0.4724844168366681</v>
+        <v>0.5873938231230015</v>
       </c>
       <c r="D3">
-        <v>0.07710224888280645</v>
+        <v>0.0475723440659287</v>
       </c>
       <c r="E3">
-        <v>0.04999866069007767</v>
+        <v>0.0264846088559779</v>
       </c>
       <c r="F3">
-        <v>0.1815561356857811</v>
+        <v>0.1802938856731495</v>
       </c>
       <c r="G3">
-        <v>0.007051586443220063</v>
+        <v>0.007098836991016297</v>
       </c>
       <c r="H3">
-        <v>0.004053430155755972</v>
-      </c>
-      <c r="I3">
-        <v>0.05675591081323912</v>
-      </c>
-      <c r="J3">
-        <v>0.01034949732185791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>1.050712742179636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6164736710193688</v>
+        <v>0.4481270006642316</v>
       </c>
       <c r="C4">
-        <v>0.5869197827276013</v>
+        <v>0.4805487976791967</v>
       </c>
       <c r="D4">
-        <v>0.107318921264026</v>
+        <v>0.04930143668409695</v>
       </c>
       <c r="E4">
-        <v>0.08199743452438145</v>
+        <v>0.02865181904641569</v>
       </c>
       <c r="F4">
-        <v>0.2300985297670788</v>
+        <v>0.226676643501858</v>
       </c>
       <c r="G4">
-        <v>0.006996219934415862</v>
+        <v>0.007095083870987367</v>
       </c>
       <c r="H4">
-        <v>0.004021604086797844</v>
-      </c>
-      <c r="I4">
-        <v>0.05647407258957495</v>
-      </c>
-      <c r="J4">
-        <v>0.01034949732185767</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>1.050293069203941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6078795042000202</v>
+        <v>0.4560721921440246</v>
       </c>
       <c r="C5">
-        <v>0.5783316214860028</v>
+        <v>0.4884651653228858</v>
       </c>
       <c r="D5">
-        <v>0.1048452018021392</v>
+        <v>0.04914120283449749</v>
       </c>
       <c r="E5">
-        <v>0.07941689018132196</v>
+        <v>0.02845278470058604</v>
       </c>
       <c r="F5">
-        <v>0.2264307951228562</v>
+        <v>0.2232096350525973</v>
       </c>
       <c r="G5">
-        <v>0.007000684496501481</v>
+        <v>0.007095428551279077</v>
       </c>
       <c r="H5">
-        <v>0.004024170429951716</v>
-      </c>
-      <c r="I5">
-        <v>0.05649680007421447</v>
-      </c>
-      <c r="J5">
-        <v>0.01034949732185745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>1.050326788031682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7596946481716107</v>
+        <v>0.3146334409801307</v>
       </c>
       <c r="C6">
-        <v>0.6579921227250886</v>
+        <v>0.4161872650412215</v>
       </c>
       <c r="D6">
-        <v>0.1613875263751504</v>
+        <v>0.109273835218456</v>
       </c>
       <c r="E6">
-        <v>0.1073058824987509</v>
+        <v>0.03473707028954441</v>
       </c>
       <c r="F6">
-        <v>0.2280825452953868</v>
+        <v>0.223562418901337</v>
       </c>
       <c r="G6">
-        <v>0.006962427886319974</v>
+        <v>0.007094312041320009</v>
       </c>
       <c r="H6">
-        <v>0.00400217956326891</v>
-      </c>
-      <c r="I6">
-        <v>0.0561891693448355</v>
-      </c>
-      <c r="J6">
-        <v>0.01034949732185776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>1.050221103445326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5892465031428454</v>
+        <v>0.4713619704831229</v>
       </c>
       <c r="C7">
-        <v>0.4362239724158398</v>
+        <v>0.6240727614218202</v>
       </c>
       <c r="D7">
-        <v>0.1681941593630098</v>
+        <v>0.1588206563166676</v>
       </c>
       <c r="E7">
-        <v>0.05343631007638842</v>
+        <v>0.0360071571838386</v>
       </c>
       <c r="F7">
-        <v>0.1122501853051663</v>
+        <v>0.1116603891536534</v>
       </c>
       <c r="G7">
-        <v>0.007064448626525389</v>
+        <v>0.007101047875930081</v>
       </c>
       <c r="H7">
-        <v>0.004060823663882313</v>
-      </c>
-      <c r="I7">
-        <v>0.05659650470983065</v>
-      </c>
-      <c r="J7">
-        <v>0.01034949732185748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>1.05101406246966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6572297677952398</v>
+        <v>0.4076357117766741</v>
       </c>
       <c r="C8">
-        <v>0.4883031520001636</v>
+        <v>0.5749033837175687</v>
       </c>
       <c r="D8">
-        <v>0.1875453058631583</v>
+        <v>0.1734169578776695</v>
       </c>
       <c r="E8">
-        <v>0.0683353824944094</v>
+        <v>0.03812428379027717</v>
       </c>
       <c r="F8">
-        <v>0.1271758329326591</v>
+        <v>0.1261006488150827</v>
       </c>
       <c r="G8">
-        <v>0.007041480277659606</v>
+        <v>0.007100092211783912</v>
       </c>
       <c r="H8">
-        <v>0.004047620876301969</v>
-      </c>
-      <c r="I8">
-        <v>0.05644036336935686</v>
-      </c>
-      <c r="J8">
-        <v>0.01034949732185781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>1.050878896834438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6207182040523006</v>
+        <v>0.4417516743482481</v>
       </c>
       <c r="C9">
-        <v>0.4673425718969491</v>
+        <v>0.5944097413436917</v>
       </c>
       <c r="D9">
-        <v>0.1703816290466018</v>
+        <v>0.1578320702769928</v>
       </c>
       <c r="E9">
-        <v>0.06065490064157048</v>
+        <v>0.03612687155571401</v>
       </c>
       <c r="F9">
-        <v>0.1254981157493113</v>
+        <v>0.1246142887451795</v>
       </c>
       <c r="G9">
-        <v>0.007051704802395436</v>
+        <v>0.007100557897802185</v>
       </c>
       <c r="H9">
-        <v>0.004053498191603517</v>
-      </c>
-      <c r="I9">
-        <v>0.05653113980917718</v>
-      </c>
-      <c r="J9">
-        <v>0.01034949732185823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>1.050943826363824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7717368998532005</v>
+        <v>0.3029357898378323</v>
       </c>
       <c r="C10">
-        <v>0.6412930777149073</v>
+        <v>0.4317967209575583</v>
       </c>
       <c r="D10">
-        <v>0.176754999245233</v>
+        <v>0.1347292639020793</v>
       </c>
       <c r="E10">
-        <v>0.1048113123002665</v>
+        <v>0.03656206830088389</v>
       </c>
       <c r="F10">
-        <v>0.208685150246393</v>
+        <v>0.2048214528871878</v>
       </c>
       <c r="G10">
-        <v>0.006971089460396557</v>
+        <v>0.007095438777057116</v>
       </c>
       <c r="H10">
-        <v>0.004007158455019276</v>
-      </c>
-      <c r="I10">
-        <v>0.05617446786673804</v>
-      </c>
-      <c r="J10">
-        <v>0.01034949732185742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>1.050327803286435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8198464547290364</v>
+        <v>0.2598078545635615</v>
       </c>
       <c r="C11">
-        <v>0.6858383396807656</v>
+        <v>0.391445579293637</v>
       </c>
       <c r="D11">
-        <v>0.1887726184775851</v>
+        <v>0.1376205887337583</v>
       </c>
       <c r="E11">
-        <v>0.1193021127585253</v>
+        <v>0.03794418797003656</v>
       </c>
       <c r="F11">
-        <v>0.2261953198394274</v>
+        <v>0.2212041440149997</v>
       </c>
       <c r="G11">
-        <v>0.006946508614047961</v>
+        <v>0.007093477472079034</v>
       </c>
       <c r="H11">
-        <v>0.003993028763119696</v>
-      </c>
-      <c r="I11">
-        <v>0.05604168621963885</v>
-      </c>
-      <c r="J11">
-        <v>0.01034949732185771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>1.050148795329609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6959398905413373</v>
+        <v>0.3717760573728155</v>
       </c>
       <c r="C12">
-        <v>0.5432693869769</v>
+        <v>0.5228110575545351</v>
       </c>
       <c r="D12">
-        <v>0.1775936670180492</v>
+        <v>0.1554918667497971</v>
       </c>
       <c r="E12">
-        <v>0.07962615646740187</v>
+        <v>0.03680822318953288</v>
       </c>
       <c r="F12">
-        <v>0.1579648301736426</v>
+        <v>0.156112210835392</v>
       </c>
       <c r="G12">
-        <v>0.007018417040325533</v>
+        <v>0.007098861507553698</v>
       </c>
       <c r="H12">
-        <v>0.004034363544432816</v>
-      </c>
-      <c r="I12">
-        <v>0.05636401625525306</v>
-      </c>
-      <c r="J12">
-        <v>0.01034949732185769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>1.050715863700558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5751768925823559</v>
+        <v>0.4847413440849458</v>
       </c>
       <c r="C13">
-        <v>0.4123549047972295</v>
+        <v>0.6471986283331336</v>
       </c>
       <c r="D13">
-        <v>0.1725571087005441</v>
+        <v>0.1652510420247922</v>
       </c>
       <c r="E13">
-        <v>0.04985326200038729</v>
+        <v>0.03670785846555176</v>
       </c>
       <c r="F13">
-        <v>0.09952112515341328</v>
+        <v>0.09910434303585704</v>
       </c>
       <c r="G13">
-        <v>0.007071691775738488</v>
+        <v>0.007100970434604508</v>
       </c>
       <c r="H13">
-        <v>0.004064987209161739</v>
-      </c>
-      <c r="I13">
-        <v>0.05660904483684667</v>
-      </c>
-      <c r="J13">
-        <v>0.01034949732185826</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>1.051002830661708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6790537795413052</v>
+        <v>0.3878394590372728</v>
       </c>
       <c r="C14">
-        <v>0.4671504923705401</v>
+        <v>0.5961465369262418</v>
       </c>
       <c r="D14">
-        <v>0.2235604814242648</v>
+        <v>0.2122219131420379</v>
       </c>
       <c r="E14">
-        <v>0.07198544347380717</v>
+        <v>0.04312547124227436</v>
       </c>
       <c r="F14">
-        <v>0.1012059598253913</v>
+        <v>0.1003897603087843</v>
       </c>
       <c r="G14">
-        <v>0.007043046826147274</v>
+        <v>0.007099391643218794</v>
       </c>
       <c r="H14">
-        <v>0.004048521367974853</v>
-      </c>
-      <c r="I14">
-        <v>0.05632818775380403</v>
-      </c>
-      <c r="J14">
-        <v>0.01034949732185737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>1.050784568331453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5498494968225296</v>
+        <v>0.5087624597438277</v>
       </c>
       <c r="C15">
-        <v>0.3915295439932309</v>
+        <v>0.6671382215296079</v>
       </c>
       <c r="D15">
-        <v>0.1649736594001353</v>
+        <v>0.1591760297753038</v>
       </c>
       <c r="E15">
-        <v>0.04473145878010241</v>
+        <v>0.03610501953670336</v>
       </c>
       <c r="F15">
-        <v>0.09362151117991728</v>
+        <v>0.09333344553300203</v>
       </c>
       <c r="G15">
-        <v>0.007079513833574132</v>
+        <v>0.007101061128222332</v>
       </c>
       <c r="H15">
-        <v>0.004069483525754372</v>
-      </c>
-      <c r="I15">
-        <v>0.05665996100766261</v>
-      </c>
-      <c r="J15">
-        <v>0.01034949732185764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>1.051015989460011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4252215440630329</v>
+        <v>0.6283026958869585</v>
       </c>
       <c r="C16">
-        <v>0.2985594261635034</v>
+        <v>0.7568947244376203</v>
       </c>
       <c r="D16">
-        <v>0.1288968812642545</v>
+        <v>0.1293952878091051</v>
       </c>
       <c r="E16">
-        <v>0.02163324699645448</v>
+        <v>0.0328304506095002</v>
       </c>
       <c r="F16">
-        <v>0.06874567782269478</v>
+        <v>0.06887057077610013</v>
       </c>
       <c r="G16">
-        <v>0.007114453737954856</v>
+        <v>0.007101323525445132</v>
       </c>
       <c r="H16">
-        <v>0.00408956786609175</v>
-      </c>
-      <c r="I16">
-        <v>0.0569102219464776</v>
-      </c>
-      <c r="J16">
-        <v>0.0103494973218582</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>1.051054440576499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3853196852331257</v>
+        <v>0.667091588204724</v>
       </c>
       <c r="C17">
-        <v>0.265377941788285</v>
+        <v>0.7894558010823578</v>
       </c>
       <c r="D17">
-        <v>0.1213907539147288</v>
+        <v>0.1237774669676137</v>
       </c>
       <c r="E17">
-        <v>0.01493179964169772</v>
+        <v>0.03236321848562519</v>
       </c>
       <c r="F17">
-        <v>0.05772038261971318</v>
+        <v>0.05791095437060931</v>
       </c>
       <c r="G17">
-        <v>0.007125273620403961</v>
+        <v>0.007101085991764879</v>
       </c>
       <c r="H17">
-        <v>0.004095787408057149</v>
-      </c>
-      <c r="I17">
-        <v>0.05697914841731744</v>
-      </c>
-      <c r="J17">
-        <v>0.01034949732185764</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>1.051019608704211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7304720492101381</v>
+        <v>0.3404752633112461</v>
       </c>
       <c r="C18">
-        <v>0.6037535188506254</v>
+        <v>0.4661800389457718</v>
       </c>
       <c r="D18">
-        <v>0.1646077754116315</v>
+        <v>0.1288292528628125</v>
       </c>
       <c r="E18">
-        <v>0.09317898527874373</v>
+        <v>0.03527210128700491</v>
       </c>
       <c r="F18">
-        <v>0.1955650167801629</v>
+        <v>0.1924759518301454</v>
       </c>
       <c r="G18">
-        <v>0.006989977479029142</v>
+        <v>0.007096691667248735</v>
       </c>
       <c r="H18">
-        <v>0.004018015765628359</v>
-      </c>
-      <c r="I18">
-        <v>0.05627872609965353</v>
-      </c>
-      <c r="J18">
-        <v>0.01034949732185787</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>1.050458693572261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.300801656987944</v>
+        <v>0.1589253574488186</v>
       </c>
       <c r="C19">
-        <v>1.087916685870923</v>
+        <v>0.05618528498459828</v>
       </c>
       <c r="D19">
-        <v>0.3631845421005278</v>
+        <v>0.2083744732111036</v>
       </c>
       <c r="E19">
-        <v>0.29177608839209</v>
+        <v>0.06042610038778649</v>
       </c>
       <c r="F19">
-        <v>0.3656827923073449</v>
+        <v>0.3414657812566801</v>
       </c>
       <c r="G19">
-        <v>0.006663286804118432</v>
+        <v>0.007067611134563463</v>
       </c>
       <c r="H19">
-        <v>0.003830225706759378</v>
-      </c>
-      <c r="I19">
-        <v>0.05439489708343181</v>
-      </c>
-      <c r="J19">
-        <v>0.0103494973218575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>1.050883418182355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.716519728581469</v>
+        <v>0.4814615936403025</v>
       </c>
       <c r="C20">
-        <v>1.31275171371869</v>
+        <v>0.1149996982191642</v>
       </c>
       <c r="D20">
-        <v>0.5736613814510163</v>
+        <v>0.3765259701056705</v>
       </c>
       <c r="E20">
-        <v>0.4507885572937119</v>
+        <v>0.0964078769681042</v>
       </c>
       <c r="F20">
-        <v>0.3713968212530279</v>
+        <v>0.3342021520578558</v>
       </c>
       <c r="G20">
-        <v>0.006440008348999281</v>
+        <v>0.007048406890386685</v>
       </c>
       <c r="H20">
-        <v>0.003701879606150603</v>
-      </c>
-      <c r="I20">
-        <v>0.05250265084133948</v>
-      </c>
-      <c r="J20">
-        <v>0.01034949732185748</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>1.055205304587822</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.574562268989893</v>
+        <v>0.3748746194074517</v>
       </c>
       <c r="C21">
-        <v>1.242106283214433</v>
+        <v>0.06720510290705911</v>
       </c>
       <c r="D21">
-        <v>0.4981233749499565</v>
+        <v>0.315980475768097</v>
       </c>
       <c r="E21">
-        <v>0.3924157943160818</v>
+        <v>0.08241221401249257</v>
       </c>
       <c r="F21">
-        <v>0.3750553565708715</v>
+        <v>0.341899262371482</v>
       </c>
       <c r="G21">
-        <v>0.006519630441122116</v>
+        <v>0.007055358641913969</v>
       </c>
       <c r="H21">
-        <v>0.003747648397594121</v>
-      </c>
-      <c r="I21">
-        <v>0.05323413076984591</v>
-      </c>
-      <c r="J21">
-        <v>0.0103494973218578</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>1.053293739780983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.401305730095858</v>
+        <v>0.2335800217340754</v>
       </c>
       <c r="C22">
-        <v>1.180376563107673</v>
+        <v>0.03271303618871294</v>
       </c>
       <c r="D22">
-        <v>0.4083206189818997</v>
+        <v>0.2176347401150737</v>
       </c>
       <c r="E22">
-        <v>0.3403405759200849</v>
+        <v>0.06586660194835023</v>
       </c>
       <c r="F22">
-        <v>0.4027507893724636</v>
+        <v>0.3702807334554752</v>
       </c>
       <c r="G22">
-        <v>0.006582009526118522</v>
+        <v>0.007060024469970359</v>
       </c>
       <c r="H22">
-        <v>0.003783505472628282</v>
-      </c>
-      <c r="I22">
-        <v>0.0539556490672951</v>
-      </c>
-      <c r="J22">
-        <v>0.01034949732185803</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>1.052231273409834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.247617801998664</v>
+        <v>0.1104336690656731</v>
       </c>
       <c r="C23">
-        <v>1.092627058346922</v>
+        <v>0.05631436531728502</v>
       </c>
       <c r="D23">
-        <v>0.3391533950202335</v>
+        <v>0.1596776751809354</v>
       </c>
       <c r="E23">
-        <v>0.2890725023192408</v>
+        <v>0.05566390077652824</v>
       </c>
       <c r="F23">
-        <v>0.3950521311805708</v>
+        <v>0.3679939810167942</v>
       </c>
       <c r="G23">
-        <v>0.006657362040557943</v>
+        <v>0.007066015142821493</v>
       </c>
       <c r="H23">
-        <v>0.003826820002884144</v>
-      </c>
-      <c r="I23">
-        <v>0.05452055671393182</v>
-      </c>
-      <c r="J23">
-        <v>0.01034949732185788</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>1.051127832454967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.148623198653363</v>
+        <v>0.03792868245126645</v>
       </c>
       <c r="C24">
-        <v>1.052297066509161</v>
+        <v>0.08673698095650607</v>
       </c>
       <c r="D24">
-        <v>0.3012284998686627</v>
+        <v>0.1092800248237157</v>
       </c>
       <c r="E24">
-        <v>0.2675538708739627</v>
+        <v>0.04974859180976941</v>
       </c>
       <c r="F24">
-        <v>0.4058045747472693</v>
+        <v>0.3795491864776082</v>
       </c>
       <c r="G24">
-        <v>0.006684558908097194</v>
+        <v>0.007067089840871564</v>
       </c>
       <c r="H24">
-        <v>0.003842453449900585</v>
-      </c>
-      <c r="I24">
-        <v>0.05478473084670418</v>
-      </c>
-      <c r="J24">
-        <v>0.01034949732185763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>1.050960954985716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.040539178463539</v>
+        <v>0.08002691008805797</v>
       </c>
       <c r="C25">
-        <v>0.9754992151631737</v>
+        <v>0.1451171260373639</v>
       </c>
       <c r="D25">
-        <v>0.258649629981242</v>
+        <v>0.08313923108505866</v>
       </c>
       <c r="E25">
-        <v>0.2306954509729591</v>
+        <v>0.04442269993544052</v>
       </c>
       <c r="F25">
-        <v>0.3856240279054777</v>
+        <v>0.3645539773239005</v>
       </c>
       <c r="G25">
-        <v>0.006743640468627726</v>
+        <v>0.007072060447698639</v>
       </c>
       <c r="H25">
-        <v>0.00387641502450983</v>
-      </c>
-      <c r="I25">
-        <v>0.05513924166169724</v>
-      </c>
-      <c r="J25">
-        <v>0.01034949732185798</v>
+        <v>1.050312319171833</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3 - Timeseries powerflow/results/res_line/i_ka.xlsx
+++ b/Lab3 - Timeseries powerflow/results/res_line/i_ka.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -391,143 +391,632 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.5231568073357005</v>
+      </c>
+      <c r="C2">
+        <v>0.559529178767847</v>
+      </c>
+      <c r="D2">
+        <v>0.05076329306334143</v>
+      </c>
+      <c r="E2">
+        <v>0.02715406454790106</v>
+      </c>
+      <c r="F2">
+        <v>0.1904523011779316</v>
+      </c>
+      <c r="G2">
+        <v>0.007098194512024602</v>
+      </c>
+      <c r="H2">
+        <v>1.050632697832093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.524824461286151</v>
-      </c>
-      <c r="C2">
-        <v>1.261469493630132</v>
-      </c>
-      <c r="D2">
-        <v>0.4425005343062564</v>
-      </c>
-      <c r="E2">
-        <v>0.4556586551601748</v>
-      </c>
-      <c r="F2">
-        <v>0.4379073025106926</v>
-      </c>
-      <c r="G2">
-        <v>0.006438308880335224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="B3">
+        <v>0.5553073590466672</v>
+      </c>
+      <c r="C3">
+        <v>0.5873938231230015</v>
+      </c>
+      <c r="D3">
+        <v>0.0475723440659287</v>
+      </c>
+      <c r="E3">
+        <v>0.0264846088559779</v>
+      </c>
+      <c r="F3">
+        <v>0.1802938856731495</v>
+      </c>
+      <c r="G3">
+        <v>0.007098836991016297</v>
+      </c>
+      <c r="H3">
+        <v>1.050712742179636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1.020440698224494</v>
-      </c>
-      <c r="C3">
-        <v>0.6503355500862835</v>
-      </c>
-      <c r="D3">
-        <v>0.3541274801321907</v>
-      </c>
-      <c r="E3">
-        <v>0.7350626891519179</v>
-      </c>
-      <c r="F3">
-        <v>0.4220785369415805</v>
-      </c>
-      <c r="G3">
-        <v>0.006626936340130439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="B4">
+        <v>0.4481270006642316</v>
+      </c>
+      <c r="C4">
+        <v>0.4805487976791967</v>
+      </c>
+      <c r="D4">
+        <v>0.04930143668409695</v>
+      </c>
+      <c r="E4">
+        <v>0.02865181904641569</v>
+      </c>
+      <c r="F4">
+        <v>0.226676643501858</v>
+      </c>
+      <c r="G4">
+        <v>0.007095083870987367</v>
+      </c>
+      <c r="H4">
+        <v>1.050293069203941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.6634147143661222</v>
-      </c>
-      <c r="C4">
-        <v>0.3566419324554376</v>
-      </c>
-      <c r="D4">
-        <v>0.6293918537901629</v>
-      </c>
-      <c r="E4">
-        <v>1.022132689758554</v>
-      </c>
-      <c r="F4">
-        <v>0.420174300408132</v>
-      </c>
-      <c r="G4">
-        <v>0.006650897321322916</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="B5">
+        <v>0.4560721921440246</v>
+      </c>
+      <c r="C5">
+        <v>0.4884651653228858</v>
+      </c>
+      <c r="D5">
+        <v>0.04914120283449749</v>
+      </c>
+      <c r="E5">
+        <v>0.02845278470058604</v>
+      </c>
+      <c r="F5">
+        <v>0.2232096350525973</v>
+      </c>
+      <c r="G5">
+        <v>0.007095428551279077</v>
+      </c>
+      <c r="H5">
+        <v>1.050326788031682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.7314826660210243</v>
-      </c>
-      <c r="C5">
-        <v>0.3738699657369824</v>
-      </c>
-      <c r="D5">
-        <v>0.6102477589563562</v>
-      </c>
-      <c r="E5">
-        <v>1.003235129505472</v>
-      </c>
-      <c r="F5">
-        <v>0.4210255596189066</v>
-      </c>
-      <c r="G5">
-        <v>0.006640151059713622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="B6">
+        <v>0.3146334409801307</v>
+      </c>
+      <c r="C6">
+        <v>0.4161872650412215</v>
+      </c>
+      <c r="D6">
+        <v>0.109273835218456</v>
+      </c>
+      <c r="E6">
+        <v>0.03473707028954441</v>
+      </c>
+      <c r="F6">
+        <v>0.223562418901337</v>
+      </c>
+      <c r="G6">
+        <v>0.007094312041320009</v>
+      </c>
+      <c r="H6">
+        <v>1.050221103445326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1.071377522658814</v>
-      </c>
-      <c r="C6">
-        <v>0.6843054179687195</v>
-      </c>
-      <c r="D6">
-        <v>0.3324391431748971</v>
-      </c>
-      <c r="E6">
-        <v>0.7086201283698638</v>
-      </c>
-      <c r="F6">
-        <v>0.4229407606802559</v>
-      </c>
-      <c r="G6">
-        <v>0.006616179432556912</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="B7">
+        <v>0.4713619704831229</v>
+      </c>
+      <c r="C7">
+        <v>0.6240727614218202</v>
+      </c>
+      <c r="D7">
+        <v>0.1588206563166676</v>
+      </c>
+      <c r="E7">
+        <v>0.0360071571838386</v>
+      </c>
+      <c r="F7">
+        <v>0.1116603891536534</v>
+      </c>
+      <c r="G7">
+        <v>0.007101047875930081</v>
+      </c>
+      <c r="H7">
+        <v>1.05101406246966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1.448649596248075</v>
-      </c>
-      <c r="C7">
-        <v>1.178890478461101</v>
-      </c>
-      <c r="D7">
-        <v>0.3769989693363128</v>
-      </c>
-      <c r="E7">
-        <v>0.4505931349354784</v>
-      </c>
-      <c r="F7">
-        <v>0.434135674231939</v>
-      </c>
-      <c r="G7">
-        <v>0.006481594880870137</v>
+      <c r="B8">
+        <v>0.4076357117766741</v>
+      </c>
+      <c r="C8">
+        <v>0.5749033837175687</v>
+      </c>
+      <c r="D8">
+        <v>0.1734169578776695</v>
+      </c>
+      <c r="E8">
+        <v>0.03812428379027717</v>
+      </c>
+      <c r="F8">
+        <v>0.1261006488150827</v>
+      </c>
+      <c r="G8">
+        <v>0.007100092211783912</v>
+      </c>
+      <c r="H8">
+        <v>1.050878896834438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.4417516743482481</v>
+      </c>
+      <c r="C9">
+        <v>0.5944097413436917</v>
+      </c>
+      <c r="D9">
+        <v>0.1578320702769928</v>
+      </c>
+      <c r="E9">
+        <v>0.03612687155571401</v>
+      </c>
+      <c r="F9">
+        <v>0.1246142887451795</v>
+      </c>
+      <c r="G9">
+        <v>0.007100557897802185</v>
+      </c>
+      <c r="H9">
+        <v>1.050943826363824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.3029357898378323</v>
+      </c>
+      <c r="C10">
+        <v>0.4317967209575583</v>
+      </c>
+      <c r="D10">
+        <v>0.1347292639020793</v>
+      </c>
+      <c r="E10">
+        <v>0.03656206830088389</v>
+      </c>
+      <c r="F10">
+        <v>0.2048214528871878</v>
+      </c>
+      <c r="G10">
+        <v>0.007095438777057116</v>
+      </c>
+      <c r="H10">
+        <v>1.050327803286435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.2598078545635615</v>
+      </c>
+      <c r="C11">
+        <v>0.391445579293637</v>
+      </c>
+      <c r="D11">
+        <v>0.1376205887337583</v>
+      </c>
+      <c r="E11">
+        <v>0.03794418797003656</v>
+      </c>
+      <c r="F11">
+        <v>0.2212041440149997</v>
+      </c>
+      <c r="G11">
+        <v>0.007093477472079034</v>
+      </c>
+      <c r="H11">
+        <v>1.050148795329609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3717760573728155</v>
+      </c>
+      <c r="C12">
+        <v>0.5228110575545351</v>
+      </c>
+      <c r="D12">
+        <v>0.1554918667497971</v>
+      </c>
+      <c r="E12">
+        <v>0.03680822318953288</v>
+      </c>
+      <c r="F12">
+        <v>0.156112210835392</v>
+      </c>
+      <c r="G12">
+        <v>0.007098861507553698</v>
+      </c>
+      <c r="H12">
+        <v>1.050715863700558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.4847413440849458</v>
+      </c>
+      <c r="C13">
+        <v>0.6471986283331336</v>
+      </c>
+      <c r="D13">
+        <v>0.1652510420247922</v>
+      </c>
+      <c r="E13">
+        <v>0.03670785846555176</v>
+      </c>
+      <c r="F13">
+        <v>0.09910434303585704</v>
+      </c>
+      <c r="G13">
+        <v>0.007100970434604508</v>
+      </c>
+      <c r="H13">
+        <v>1.051002830661708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.3878394590372728</v>
+      </c>
+      <c r="C14">
+        <v>0.5961465369262418</v>
+      </c>
+      <c r="D14">
+        <v>0.2122219131420379</v>
+      </c>
+      <c r="E14">
+        <v>0.04312547124227436</v>
+      </c>
+      <c r="F14">
+        <v>0.1003897603087843</v>
+      </c>
+      <c r="G14">
+        <v>0.007099391643218794</v>
+      </c>
+      <c r="H14">
+        <v>1.050784568331453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.5087624597438277</v>
+      </c>
+      <c r="C15">
+        <v>0.6671382215296079</v>
+      </c>
+      <c r="D15">
+        <v>0.1591760297753038</v>
+      </c>
+      <c r="E15">
+        <v>0.03610501953670336</v>
+      </c>
+      <c r="F15">
+        <v>0.09333344553300203</v>
+      </c>
+      <c r="G15">
+        <v>0.007101061128222332</v>
+      </c>
+      <c r="H15">
+        <v>1.051015989460011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.6283026958869585</v>
+      </c>
+      <c r="C16">
+        <v>0.7568947244376203</v>
+      </c>
+      <c r="D16">
+        <v>0.1293952878091051</v>
+      </c>
+      <c r="E16">
+        <v>0.0328304506095002</v>
+      </c>
+      <c r="F16">
+        <v>0.06887057077610013</v>
+      </c>
+      <c r="G16">
+        <v>0.007101323525445132</v>
+      </c>
+      <c r="H16">
+        <v>1.051054440576499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.667091588204724</v>
+      </c>
+      <c r="C17">
+        <v>0.7894558010823578</v>
+      </c>
+      <c r="D17">
+        <v>0.1237774669676137</v>
+      </c>
+      <c r="E17">
+        <v>0.03236321848562519</v>
+      </c>
+      <c r="F17">
+        <v>0.05791095437060931</v>
+      </c>
+      <c r="G17">
+        <v>0.007101085991764879</v>
+      </c>
+      <c r="H17">
+        <v>1.051019608704211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.3404752633112461</v>
+      </c>
+      <c r="C18">
+        <v>0.4661800389457718</v>
+      </c>
+      <c r="D18">
+        <v>0.1288292528628125</v>
+      </c>
+      <c r="E18">
+        <v>0.03527210128700491</v>
+      </c>
+      <c r="F18">
+        <v>0.1924759518301454</v>
+      </c>
+      <c r="G18">
+        <v>0.007096691667248735</v>
+      </c>
+      <c r="H18">
+        <v>1.050458693572261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.1589253574488186</v>
+      </c>
+      <c r="C19">
+        <v>0.05618528498459828</v>
+      </c>
+      <c r="D19">
+        <v>0.2083744732111036</v>
+      </c>
+      <c r="E19">
+        <v>0.06042610038778649</v>
+      </c>
+      <c r="F19">
+        <v>0.3414657812566801</v>
+      </c>
+      <c r="G19">
+        <v>0.007067611134563463</v>
+      </c>
+      <c r="H19">
+        <v>1.050883418182355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.4814615936403025</v>
+      </c>
+      <c r="C20">
+        <v>0.1149996982191642</v>
+      </c>
+      <c r="D20">
+        <v>0.3765259701056705</v>
+      </c>
+      <c r="E20">
+        <v>0.0964078769681042</v>
+      </c>
+      <c r="F20">
+        <v>0.3342021520578558</v>
+      </c>
+      <c r="G20">
+        <v>0.007048406890386685</v>
+      </c>
+      <c r="H20">
+        <v>1.055205304587822</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.3748746194074517</v>
+      </c>
+      <c r="C21">
+        <v>0.06720510290705911</v>
+      </c>
+      <c r="D21">
+        <v>0.315980475768097</v>
+      </c>
+      <c r="E21">
+        <v>0.08241221401249257</v>
+      </c>
+      <c r="F21">
+        <v>0.341899262371482</v>
+      </c>
+      <c r="G21">
+        <v>0.007055358641913969</v>
+      </c>
+      <c r="H21">
+        <v>1.053293739780983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.2335800217340754</v>
+      </c>
+      <c r="C22">
+        <v>0.03271303618871294</v>
+      </c>
+      <c r="D22">
+        <v>0.2176347401150737</v>
+      </c>
+      <c r="E22">
+        <v>0.06586660194835023</v>
+      </c>
+      <c r="F22">
+        <v>0.3702807334554752</v>
+      </c>
+      <c r="G22">
+        <v>0.007060024469970359</v>
+      </c>
+      <c r="H22">
+        <v>1.052231273409834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.1104336690656731</v>
+      </c>
+      <c r="C23">
+        <v>0.05631436531728502</v>
+      </c>
+      <c r="D23">
+        <v>0.1596776751809354</v>
+      </c>
+      <c r="E23">
+        <v>0.05566390077652824</v>
+      </c>
+      <c r="F23">
+        <v>0.3679939810167942</v>
+      </c>
+      <c r="G23">
+        <v>0.007066015142821493</v>
+      </c>
+      <c r="H23">
+        <v>1.051127832454967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.03792868245126645</v>
+      </c>
+      <c r="C24">
+        <v>0.08673698095650607</v>
+      </c>
+      <c r="D24">
+        <v>0.1092800248237157</v>
+      </c>
+      <c r="E24">
+        <v>0.04974859180976941</v>
+      </c>
+      <c r="F24">
+        <v>0.3795491864776082</v>
+      </c>
+      <c r="G24">
+        <v>0.007067089840871564</v>
+      </c>
+      <c r="H24">
+        <v>1.050960954985716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.08002691008805797</v>
+      </c>
+      <c r="C25">
+        <v>0.1451171260373639</v>
+      </c>
+      <c r="D25">
+        <v>0.08313923108505866</v>
+      </c>
+      <c r="E25">
+        <v>0.04442269993544052</v>
+      </c>
+      <c r="F25">
+        <v>0.3645539773239005</v>
+      </c>
+      <c r="G25">
+        <v>0.007072060447698639</v>
+      </c>
+      <c r="H25">
+        <v>1.050312319171833</v>
       </c>
     </row>
   </sheetData>
